--- a/sputnik/personal/ee/134ee.xlsx
+++ b/sputnik/personal/ee/134ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 15.02.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 19.03.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>День/ночь</t>
   </si>
   <si>
     <t>Показания на день оплаты</t>
@@ -38,35 +35,39 @@
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Т1</t>
   </si>
   <si>
     <t>Т2</t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
   </si>
   <si>
-    <t>недоимка</t>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
   </si>
   <si>
-    <t>Общая сумма переплаты на 18.11.2019 составляет 200,46 /(45,70+ 85,24 + 71,79) - (0,66-1,61)/</t>
+    <t>всего начислено к оплате</t>
   </si>
   <si>
-    <t>нет данных</t>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -101,13 +102,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -205,11 +199,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -218,55 +247,15 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -279,18 +268,32 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -659,10 +662,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -673,524 +676,561 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43583</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="C2" s="2">
+        <v>53866</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>43878</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="28">
-        <v>217.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>43878</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="18">
-        <v>57808</v>
-      </c>
-      <c r="D3" s="18">
-        <f>C3-C5</f>
-        <v>401</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="C3" s="2">
+        <v>24092</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43609</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>54356</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4-C2</f>
+        <v>490</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F15" si="0">D4*E4</f>
+        <v>2239.3000000000002</v>
+      </c>
+      <c r="G4" s="19">
+        <f>SUM(F4,F5)</f>
+        <v>2478.3000000000002</v>
+      </c>
+      <c r="H4" s="19">
+        <v>2524</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24192</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D20" si="1">C5-C3</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43646</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>55374</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>1018</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>4652.26</v>
+      </c>
+      <c r="G6" s="19">
+        <f>SUM(F6,F7)</f>
+        <v>5844.8700000000008</v>
+      </c>
+      <c r="H6" s="19">
+        <v>5844.87</v>
+      </c>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>24691</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>499</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>1192.6100000000001</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43688</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>56103</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>729</v>
+      </c>
+      <c r="E8" s="2">
         <v>4.49</v>
       </c>
-      <c r="F3" s="25">
-        <f>D3*E3</f>
-        <v>1800.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="26">
-        <v>25413</v>
-      </c>
-      <c r="D4" s="26">
-        <v>60</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>3273.21</v>
+      </c>
+      <c r="G8" s="19">
+        <f>SUM(F8,F9)</f>
+        <v>3620.7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>3705.94</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>24834</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F4" s="25">
-        <f>D4*E4</f>
-        <v>145.80000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
-        <v>43829</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6">
-        <v>57407</v>
-      </c>
-      <c r="D5" s="6">
-        <f>C5-C7</f>
-        <v>178</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>347.49</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>56361</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="E10" s="2">
         <v>4.49</v>
       </c>
-      <c r="F5" s="12">
-        <f>D5*E5</f>
-        <v>799.22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7">
-        <v>60</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>1158.42</v>
+      </c>
+      <c r="G10" s="19">
+        <f>SUM(F10,F11)</f>
+        <v>1355.25</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1427.04</v>
+      </c>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>24915</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F6" s="12">
-        <f>D6*E6</f>
-        <v>145.80000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>43808</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6">
-        <v>57229</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>196.83</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43745</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>56610</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+      <c r="E12" s="2">
         <v>4.49</v>
       </c>
-      <c r="F7" s="12">
-        <v>1134.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>1118.01</v>
+      </c>
+      <c r="G12" s="19">
+        <f>SUM(F12,F13)</f>
+        <v>1312.41</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1311.75</v>
+      </c>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>24995</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E13" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="F13" s="15">
+        <f t="shared" si="0"/>
+        <v>194.4</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>43787</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>43787</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14">
-        <v>-1.61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>43787</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
         <v>57018</v>
       </c>
-      <c r="D11" s="6">
-        <f>C11-C14</f>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
         <v>408</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E14" s="4">
         <v>4.49</v>
       </c>
-      <c r="F11" s="12">
-        <f>D11*E11</f>
+      <c r="F14" s="16">
+        <f t="shared" si="0"/>
         <v>1831.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2">
-        <v>25126</v>
-      </c>
-      <c r="D12" s="2">
-        <f>C12-C15</f>
-        <v>131</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F12" s="4">
-        <f>D12*E12</f>
-        <v>318.33000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>43745</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
-        <v>-0.66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>43745</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>56610</v>
-      </c>
-      <c r="D14" s="2">
-        <f>C14-C17</f>
-        <v>249</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="4">
-        <f>D14*E14</f>
-        <v>1118.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="19">
+        <f>SUM(F14,F15)</f>
+        <v>2150.25</v>
+      </c>
+      <c r="H14" s="19">
+        <v>2148.64</v>
+      </c>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>24995</v>
+        <v>25126</v>
       </c>
       <c r="D15" s="2">
-        <f>C15-C18</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>131</v>
       </c>
       <c r="E15" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="4">
-        <f>D15*E15</f>
-        <v>194.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9">
-        <v>71.790000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>43717</v>
-      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="0"/>
+        <v>318.33000000000004</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43808</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>57229</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1134.5</v>
+      </c>
+      <c r="G16" s="19">
+        <f>SUM(F16,F17)</f>
+        <v>1134.5</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1134.5</v>
+      </c>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <v>56361</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <f>C17-C20</f>
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>43829</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>57407</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="E18" s="4">
         <v>4.49</v>
       </c>
-      <c r="F17" s="4">
-        <f>D17*E17</f>
-        <v>1158.42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2">
-        <v>24915</v>
-      </c>
-      <c r="D18" s="2">
-        <f>C18-C21</f>
-        <v>81</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="F18" s="16">
+        <f>D18*E18</f>
+        <v>799.22</v>
+      </c>
+      <c r="G18" s="19">
+        <f>SUM(F18,F19)</f>
+        <v>945.02</v>
+      </c>
+      <c r="H18" s="19">
+        <v>945.02</v>
+      </c>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F18" s="4">
-        <f>D18*E18</f>
-        <v>196.83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9">
-        <v>85.24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>43688</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>56103</v>
+      <c r="F19" s="16">
+        <f>D19*E19</f>
+        <v>145.80000000000001</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>43878</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6">
+        <v>57808</v>
       </c>
       <c r="D20" s="2">
-        <f>C20-C22</f>
-        <v>729</v>
-      </c>
-      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>401</v>
+      </c>
+      <c r="E20" s="6">
         <v>4.49</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="17">
         <f>D20*E20</f>
-        <v>3273.21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2">
-        <v>24834</v>
+        <v>1800.49</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2163.4899999999998</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2163.4899999999998</v>
+      </c>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
       </c>
       <c r="D21" s="2">
-        <f>C21-C23</f>
-        <v>143</v>
-      </c>
-      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="17">
         <f>D21*E21</f>
-        <v>347.49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>43646</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2">
-        <v>55374</v>
-      </c>
-      <c r="D22" s="2">
-        <f>C22-C25</f>
-        <v>1018</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F22" s="4">
-        <f>D22*E22</f>
-        <v>4652.26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2">
-        <v>24691</v>
-      </c>
-      <c r="D23" s="2">
-        <f>C23-C26</f>
-        <v>499</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F23" s="4">
-        <f>D23*E23</f>
-        <v>1192.6100000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9">
-        <v>45.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>43609</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2">
-        <v>54356</v>
-      </c>
-      <c r="D25" s="2">
-        <f>C25-C27</f>
-        <v>490</v>
-      </c>
-      <c r="E25" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="F25" s="4">
-        <f>D25*E25</f>
-        <v>2239.3000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2">
-        <v>24192</v>
-      </c>
-      <c r="D26" s="2">
-        <f>C26-C28</f>
-        <v>100</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F26" s="4">
-        <f>D26*E26</f>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>43583</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2">
-        <v>53866</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2">
-        <v>24092</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="22">
+        <f>SUM(G2:G21)</f>
+        <v>21004.79</v>
+      </c>
+      <c r="H22" s="22">
+        <f>SUM(H2:H21)</f>
+        <v>21205.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="22">
+        <f>SUM(H22,-G22)</f>
+        <v>200.45999999999913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="B9:F9"/>
-  </mergeCells>
   <pageMargins left="0.31527777777777777" right="0.31527777777777777" top="0.74791666666666667" bottom="0.74791666666666667" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/sputnik/personal/ee/134ee.xlsx
+++ b/sputnik/personal/ee/134ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 19.03.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -662,10 +662,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1200,34 +1200,84 @@
       <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="21" t="s">
+      <c r="A22" s="10">
+        <v>43963</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6">
+        <v>58799</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="2">C22-C20</f>
+        <v>991</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="17">
+        <f>D22*E22</f>
+        <v>4449.59</v>
+      </c>
+      <c r="G22" s="19">
+        <f>SUM(F22,F23)</f>
+        <v>5562.5300000000007</v>
+      </c>
+      <c r="H22" s="19">
+        <v>5702.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
+        <v>25584</v>
+      </c>
+      <c r="D23" s="2">
+        <v>458</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="17">
+        <f>D23*E23</f>
+        <v>1112.94</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="22">
-        <f>SUM(G2:G21)</f>
-        <v>21004.79</v>
-      </c>
-      <c r="H22" s="22">
-        <f>SUM(H2:H21)</f>
-        <v>21205.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="21" t="s">
+      <c r="G24" s="22">
+        <f>SUM(G2:G23)</f>
+        <v>26567.32</v>
+      </c>
+      <c r="H24" s="22">
+        <f>SUM(H2:H23)</f>
+        <v>26908.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="22">
-        <f>SUM(H22,-G22)</f>
-        <v>200.45999999999913</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="13"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="22">
+        <f>SUM(H24,-G24)</f>
+        <v>340.77999999999884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/134ee.xlsx
+++ b/sputnik/personal/ee/134ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 05.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>нач пени 83 дн</t>
   </si>
 </sst>
 </file>
@@ -111,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -234,11 +240,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -294,6 +326,30 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -662,10 +718,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1172,7 @@
         <v>4.49</v>
       </c>
       <c r="F18" s="16">
-        <f>D18*E18</f>
+        <f t="shared" ref="F18:F23" si="2">D18*E18</f>
         <v>799.22</v>
       </c>
       <c r="G18" s="19">
@@ -1143,7 +1199,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="16">
-        <f>D19*E19</f>
+        <f t="shared" si="2"/>
         <v>145.80000000000001</v>
       </c>
       <c r="G19" s="19"/>
@@ -1167,7 +1223,7 @@
         <v>4.49</v>
       </c>
       <c r="F20" s="17">
-        <f>D20*E20</f>
+        <f t="shared" si="2"/>
         <v>1800.49</v>
       </c>
       <c r="G20" s="19">
@@ -1193,7 +1249,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="17">
-        <f>D21*E21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="19"/>
@@ -1210,14 +1266,14 @@
         <v>58799</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:D23" si="2">C22-C20</f>
+        <f t="shared" ref="D22" si="3">C22-C20</f>
         <v>991</v>
       </c>
       <c r="E22" s="6">
         <v>4.49</v>
       </c>
       <c r="F22" s="17">
-        <f>D22*E22</f>
+        <f t="shared" si="2"/>
         <v>4449.59</v>
       </c>
       <c r="G22" s="19">
@@ -1229,55 +1285,79 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="25">
         <v>25584</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="26">
         <v>458</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="24">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F23" s="17">
-        <f>D23*E23</f>
+      <c r="F23" s="27">
+        <f t="shared" si="2"/>
         <v>1112.94</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="21" t="s">
+      <c r="A24" s="10">
+        <v>43963</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="31">
+        <v>245.22</v>
+      </c>
+      <c r="G24" s="19">
+        <v>245.22</v>
+      </c>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="22">
-        <f>SUM(G2:G23)</f>
-        <v>26567.32</v>
-      </c>
-      <c r="H24" s="22">
-        <f>SUM(H2:H23)</f>
+      <c r="G25" s="30">
+        <f>SUM(G2:G24)</f>
+        <v>26812.54</v>
+      </c>
+      <c r="H25" s="30">
+        <f>SUM(H2:H24)</f>
         <v>26908.1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="21" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="22">
-        <f>SUM(H24,-G24)</f>
-        <v>340.77999999999884</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="22">
+        <f>SUM(H25,-G25)</f>
+        <v>95.559999999997672</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="13"/>
       <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/134ee.xlsx
+++ b/sputnik/personal/ee/134ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 05.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -109,12 +109,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -270,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -348,6 +354,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,10 +731,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1324,40 +1337,89 @@
       <c r="F24" s="31">
         <v>245.22</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="33">
         <v>245.22</v>
       </c>
       <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="29" t="s">
+      <c r="A25" s="23">
+        <v>44028</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="34">
+        <v>59899</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1100</v>
+      </c>
+      <c r="E25" s="24">
+        <v>4.49</v>
+      </c>
+      <c r="F25" s="27">
+        <f t="shared" ref="F25:F26" si="4">D25*E25</f>
+        <v>4939</v>
+      </c>
+      <c r="G25" s="28">
+        <f>SUM(F25,F26)</f>
+        <v>6217.18</v>
+      </c>
+      <c r="H25" s="28">
+        <v>6255.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="35">
+        <v>26110</v>
+      </c>
+      <c r="D26" s="6">
+        <v>526</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F26" s="31">
+        <f t="shared" si="4"/>
+        <v>1278.18</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="30">
-        <f>SUM(G2:G24)</f>
-        <v>26812.54</v>
-      </c>
-      <c r="H25" s="30">
-        <f>SUM(H2:H24)</f>
-        <v>26908.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="21" t="s">
+      <c r="G27" s="30">
+        <f>SUM(G2:G26)</f>
+        <v>33029.72</v>
+      </c>
+      <c r="H27" s="30">
+        <f>SUM(H2:H26)</f>
+        <v>33164.019999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="22">
-        <f>SUM(H25,-G25)</f>
-        <v>95.559999999997672</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H30" s="13"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="22">
+        <f>SUM(H27,-G27)</f>
+        <v>134.29999999999563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/134ee.xlsx
+++ b/sputnik/personal/ee/134ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.09.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.09.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -109,7 +109,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +122,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -272,11 +278,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,6 +382,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,7 +761,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
@@ -1352,19 +1382,20 @@
       <c r="C25" s="34">
         <v>59899</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="2">
+        <f>C25-C22</f>
         <v>1100</v>
       </c>
       <c r="E25" s="24">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F25" s="27">
         <f t="shared" ref="F25:F26" si="4">D25*E25</f>
-        <v>4939</v>
+        <v>5181</v>
       </c>
       <c r="G25" s="28">
         <f>SUM(F25,F26)</f>
-        <v>6217.18</v>
+        <v>6522.3</v>
       </c>
       <c r="H25" s="28">
         <v>6255.92</v>
@@ -1378,48 +1409,100 @@
       <c r="C26" s="35">
         <v>26110</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="2">
+        <f>C26-C23</f>
         <v>526</v>
       </c>
       <c r="E26" s="6">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F26" s="31">
         <f t="shared" si="4"/>
-        <v>1278.18</v>
+        <v>1341.3</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="29" t="s">
+      <c r="A27" s="23">
+        <v>44095</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="36">
+        <v>60115</v>
+      </c>
+      <c r="D27" s="26">
+        <f>SUM(C27,-C25)</f>
+        <v>216</v>
+      </c>
+      <c r="E27" s="24">
+        <v>4.71</v>
+      </c>
+      <c r="F27" s="27">
+        <f t="shared" ref="F27:F28" si="5">D27*E27</f>
+        <v>1017.36</v>
+      </c>
+      <c r="G27" s="28">
+        <f>SUM(F27,F28)</f>
+        <v>1907.31</v>
+      </c>
+      <c r="H27" s="28">
+        <v>1907.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="37">
+        <v>26459</v>
+      </c>
+      <c r="D28" s="38">
+        <f>SUM(C28,-C26)</f>
+        <v>349</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F28" s="31">
+        <f t="shared" si="5"/>
+        <v>889.94999999999993</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="30">
-        <f>SUM(G2:G26)</f>
-        <v>33029.72</v>
-      </c>
-      <c r="H27" s="30">
-        <f>SUM(H2:H26)</f>
-        <v>33164.019999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F28" s="21" t="s">
+      <c r="G29" s="30">
+        <f>SUM(G2:G28)</f>
+        <v>35242.15</v>
+      </c>
+      <c r="H29" s="30">
+        <f>SUM(H2:H28)</f>
+        <v>35071.329999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="22">
-        <f>SUM(H27,-G27)</f>
-        <v>134.29999999999563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="13"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="22">
+        <f>SUM(H29,-G29)</f>
+        <v>-170.82000000000698</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="13"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/134ee.xlsx
+++ b/sputnik/personal/ee/134ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -706,10 +706,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -920,14 +920,14 @@
         <v>60115</v>
       </c>
       <c r="D9" s="20">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" ref="D9:D18" si="3">SUM(C9,-C7)</f>
         <v>216</v>
       </c>
       <c r="E9" s="18">
         <v>4.71</v>
       </c>
       <c r="F9" s="21">
-        <f t="shared" ref="F9:F10" si="3">D9*E9</f>
+        <f t="shared" ref="F9:F10" si="4">D9*E9</f>
         <v>1017.36</v>
       </c>
       <c r="G9" s="22">
@@ -947,14 +947,14 @@
         <v>26459</v>
       </c>
       <c r="D10" s="32">
-        <f>SUM(C10,-C8)</f>
+        <f t="shared" si="3"/>
         <v>349</v>
       </c>
       <c r="E10" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F10" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>889.94999999999993</v>
       </c>
       <c r="G10" s="13"/>
@@ -971,14 +971,14 @@
         <v>61651</v>
       </c>
       <c r="D11" s="20">
-        <f>SUM(C11,-C9)</f>
+        <f t="shared" si="3"/>
         <v>1536</v>
       </c>
       <c r="E11" s="18">
         <v>4.71</v>
       </c>
       <c r="F11" s="21">
-        <f t="shared" ref="F11:F12" si="4">D11*E11</f>
+        <f t="shared" ref="F11:F12" si="5">D11*E11</f>
         <v>7234.5599999999995</v>
       </c>
       <c r="G11" s="22">
@@ -998,53 +998,206 @@
         <v>27093</v>
       </c>
       <c r="D12" s="32">
-        <f>SUM(C12,-C10)</f>
+        <f t="shared" si="3"/>
         <v>634</v>
       </c>
       <c r="E12" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F12" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1616.6999999999998</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="23" t="s">
+      <c r="A13" s="17">
+        <v>44245</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="30">
+        <v>61651</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>4.71</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" ref="F13:F14" si="6">D13*E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <f>SUM(F13,F14)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>7234.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="31">
+        <v>27093</v>
+      </c>
+      <c r="D14" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>44245</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="30">
+        <v>63558</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="3"/>
+        <v>1907</v>
+      </c>
+      <c r="E15" s="18">
+        <v>4.71</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" ref="F15:F16" si="7">D15*E15</f>
+        <v>8981.9699999999993</v>
+      </c>
+      <c r="G15" s="22">
+        <f>SUM(F15,F16)</f>
+        <v>11261.669999999998</v>
+      </c>
+      <c r="H15" s="22">
+        <v>11261.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="31">
+        <v>27987</v>
+      </c>
+      <c r="D16" s="32">
+        <f t="shared" si="3"/>
+        <v>894</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="7"/>
+        <v>2279.6999999999998</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>44301</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="30">
+        <v>65542</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="3"/>
+        <v>1984</v>
+      </c>
+      <c r="E17" s="18">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" ref="F17:F18" si="8">D17*E17</f>
+        <v>9344.64</v>
+      </c>
+      <c r="G17" s="22">
+        <f>SUM(F17,F18)</f>
+        <v>11481.539999999999</v>
+      </c>
+      <c r="H17" s="22">
+        <v>11481.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="31">
+        <v>28825</v>
+      </c>
+      <c r="D18" s="32">
+        <f t="shared" si="3"/>
+        <v>838</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="8"/>
+        <v>2136.8999999999996</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="24">
-        <f>SUM(G2:G12)</f>
-        <v>23088.62</v>
-      </c>
-      <c r="H13" s="24">
-        <f>SUM(H2:H12)</f>
-        <v>15483.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="15" t="s">
+      <c r="G19" s="24">
+        <f>SUM(G2:G18)</f>
+        <v>45831.829999999994</v>
+      </c>
+      <c r="H19" s="24">
+        <f>SUM(H2:H18)</f>
+        <v>45460.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="16">
-        <f>SUM(H13,-G13)</f>
-        <v>-7605.5399999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="9"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="16">
+        <f>SUM(H19,-G19)</f>
+        <v>-370.97999999999593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.31527777777777777" right="0.31527777777777777" top="0.74791666666666667" bottom="0.74791666666666667" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/sputnik/personal/ee/134ee.xlsx
+++ b/sputnik/personal/ee/134ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -706,7 +706,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
@@ -1165,34 +1165,85 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="23" t="s">
+      <c r="A19" s="17">
+        <v>44335</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="30">
+        <v>65542</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" ref="D19:D20" si="9">SUM(C19,-C17)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" ref="F19:F20" si="10">D19*E19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <f>SUM(F19,F20)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <v>4804.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="31">
+        <v>28825</v>
+      </c>
+      <c r="D20" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G21" s="24">
         <f>SUM(G2:G18)</f>
         <v>45831.829999999994</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H21" s="24">
         <f>SUM(H2:H18)</f>
         <v>45460.85</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="15" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="16">
-        <f>SUM(H19,-G19)</f>
+      <c r="G22" s="13"/>
+      <c r="H22" s="16">
+        <f>SUM(H21,-G21)</f>
         <v>-370.97999999999593</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="9"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/134ee.xlsx
+++ b/sputnik/personal/ee/134ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -706,10 +706,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1216,34 +1216,85 @@
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="23" t="s">
+      <c r="A21" s="17">
+        <v>44398</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="30">
+        <v>67015</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" ref="D21:D22" si="11">SUM(C21,-C19)</f>
+        <v>1473</v>
+      </c>
+      <c r="E21" s="18">
+        <v>4.96</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" ref="F21:F22" si="12">D21*E21</f>
+        <v>7306.08</v>
+      </c>
+      <c r="G21" s="22">
+        <f>SUM(F21,F22)</f>
+        <v>9023.9599999999991</v>
+      </c>
+      <c r="H21" s="22">
+        <v>3966.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="31">
+        <v>29466</v>
+      </c>
+      <c r="D22" s="32">
+        <f t="shared" si="11"/>
+        <v>641</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F22" s="25">
+        <f t="shared" si="12"/>
+        <v>1717.88</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="24">
-        <f>SUM(G2:G18)</f>
-        <v>45831.829999999994</v>
-      </c>
-      <c r="H21" s="24">
-        <f>SUM(H2:H18)</f>
-        <v>45460.85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="15" t="s">
+      <c r="G23" s="24">
+        <f>SUM(G2:G22)</f>
+        <v>54855.789999999994</v>
+      </c>
+      <c r="H23" s="24">
+        <f>SUM(H2:H22)</f>
+        <v>54231.81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="16">
-        <f>SUM(H21,-G21)</f>
-        <v>-370.97999999999593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="9"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="16">
+        <f>SUM(H23,-G23)</f>
+        <v>-623.97999999999593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/134ee.xlsx
+++ b/sputnik/personal/ee/134ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -706,10 +706,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1267,34 +1267,85 @@
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="23" t="s">
+      <c r="A23" s="17">
+        <v>44473</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="30">
+        <v>68571</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" ref="D23:D24" si="13">SUM(C23,-C21)</f>
+        <v>1556</v>
+      </c>
+      <c r="E23" s="18">
+        <v>4.96</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" ref="F23:F24" si="14">D23*E23</f>
+        <v>7717.76</v>
+      </c>
+      <c r="G23" s="22">
+        <f>SUM(F23,F24)</f>
+        <v>9660.76</v>
+      </c>
+      <c r="H23" s="22">
+        <v>9177.51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="31">
+        <v>30191</v>
+      </c>
+      <c r="D24" s="32">
+        <f t="shared" si="13"/>
+        <v>725</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F24" s="25">
+        <f t="shared" si="14"/>
+        <v>1943.0000000000002</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="24">
-        <f>SUM(G2:G22)</f>
-        <v>54855.789999999994</v>
-      </c>
-      <c r="H23" s="24">
-        <f>SUM(H2:H22)</f>
-        <v>54231.81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="15" t="s">
+      <c r="G25" s="24">
+        <f>SUM(G2:G24)</f>
+        <v>64516.549999999996</v>
+      </c>
+      <c r="H25" s="24">
+        <f>SUM(H2:H24)</f>
+        <v>63409.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="16">
-        <f>SUM(H23,-G23)</f>
-        <v>-623.97999999999593</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="9"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="16">
+        <f>SUM(H25,-G25)</f>
+        <v>-1107.2299999999959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/134ee.xlsx
+++ b/sputnik/personal/ee/134ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\30.11.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.11.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -706,10 +706,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1318,34 +1318,85 @@
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="23" t="s">
+      <c r="A25" s="17">
+        <v>44546</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="30">
+        <v>70575</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" ref="D25:D26" si="15">SUM(C25,-C23)</f>
+        <v>2004</v>
+      </c>
+      <c r="E25" s="18">
+        <v>4.96</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" ref="F25:F26" si="16">D25*E25</f>
+        <v>9939.84</v>
+      </c>
+      <c r="G25" s="22">
+        <f>SUM(F25,F26)</f>
+        <v>11338.8</v>
+      </c>
+      <c r="H25" s="22">
+        <v>11338.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="31">
+        <v>30713</v>
+      </c>
+      <c r="D26" s="32">
+        <f t="shared" si="15"/>
+        <v>522</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="16"/>
+        <v>1398.96</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G27" s="24">
         <f>SUM(G2:G24)</f>
         <v>64516.549999999996</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H27" s="24">
         <f>SUM(H2:H24)</f>
         <v>63409.32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="15" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="16">
-        <f>SUM(H25,-G25)</f>
+      <c r="G28" s="13"/>
+      <c r="H28" s="16">
+        <f>SUM(H27,-G27)</f>
         <v>-1107.2299999999959</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="9"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
